--- a/consolidacao/pedidos/CJBG_pedidos.xlsx
+++ b/consolidacao/pedidos/CJBG_pedidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,17 +1138,17 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -1172,14 +1172,14 @@
         <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -1513,14 +1513,14 @@
         <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -2195,14 +2195,14 @@
         <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -2533,17 +2533,17 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
       </c>
       <c r="F68" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -2908,14 +2908,14 @@
         <v>48</v>
       </c>
       <c r="E80" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F80" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -4255,55 +4255,55 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>30.21.36</t>
+          <t>30.17.985</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>21 - MATERIAL DE COPA E COZINHA</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>COPO DESCARTÁVEL 50 ML</t>
+          <t>CABO ÁUDIO E VÍDEO, APLICAÇÃO PARA DATASHOW, TIPO CABO VGA, QUANTIDADE DE VIAS15 .</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E124" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>30.22.105</t>
+          <t>30.21.36</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>21 - MATERIAL DE COPA E COZINHA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PAPEL TOALHA.</t>
+          <t>COPO DESCARTÁVEL 50 ML</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E125" t="n">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>30.22.109</t>
+          <t>30.22.105</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4327,14 +4327,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
+          <t>PAPEL TOALHA.</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E126" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>30.22.118</t>
+          <t>30.22.109</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4358,14 +4358,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>LUSTRADOR DE MÓVEIS.</t>
+          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E127" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>30.22.189</t>
+          <t>30.22.118</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4389,14 +4389,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO PARA LIXO, CAPAC. 20 LT, PCT. C/100 UNIDADES.</t>
+          <t>LUSTRADOR DE MÓVEIS.</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4410,7 +4410,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>30.22.313</t>
+          <t>30.22.189</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4420,14 +4420,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SABÃO LÍQUIDO PARA LAVAR ROUPA DE 5L.</t>
+          <t>SACO PLÁSTICO PARA LIXO, CAPAC. 20 LT, PCT. C/100 UNIDADES.</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E129" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4441,7 +4441,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>30.22.347</t>
+          <t>30.22.313</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4451,14 +4451,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ESCOVA DE LIMPEZA GERAL, MATERIAL PLASTICO, CERDAS EM NYLON, COM SUPORTE</t>
+          <t>SABÃO LÍQUIDO PARA LAVAR ROUPA DE 5L.</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E130" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4472,7 +4472,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>30.22.36</t>
+          <t>30.22.347</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4482,14 +4482,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO LIXO, CAP. 100L - PCT. C/ 100</t>
+          <t>ESCOVA DE LIMPEZA GERAL, MATERIAL PLASTICO, CERDAS EM NYLON, COM SUPORTE</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="E131" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4503,7 +4503,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>30.22.360</t>
+          <t>30.22.36</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4513,14 +4513,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MOP ÚMIDO, EM FIO DE ALGODÃO, PONTA DOBRADA, PARA LIMPEZA.</t>
+          <t>SACO PLÁSTICO LIXO, CAP. 100L - PCT. C/ 100</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E132" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4534,7 +4534,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>30.22.386</t>
+          <t>30.22.360</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4544,14 +4544,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>TAMPA VASO SANITÁRIO, MATERIAL ASSENTO POLIETILENO, MATERIAL SOBRETAMPA POLIPROPILENO, COR BRANCA.</t>
+          <t>MOP ÚMIDO, EM FIO DE ALGODÃO, PONTA DOBRADA, PARA LIMPEZA.</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E133" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4565,7 +4565,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>30.22.446</t>
+          <t>30.22.386</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4575,14 +4575,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PAPEL HIGIENICO, MATERIAL CELULOSE VIRGEM, COMPRIMENTO 300 M, FARDO C. 8 UND.</t>
+          <t>TAMPA VASO SANITÁRIO, MATERIAL ASSENTO POLIETILENO, MATERIAL SOBRETAMPA POLIPROPILENO, COR BRANCA.</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>573</v>
+        <v>17</v>
       </c>
       <c r="E134" t="n">
-        <v>573</v>
+        <v>17</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4596,7 +4596,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>30.22.497</t>
+          <t>30.22.446</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4606,14 +4606,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO LIXO, CAP. 200L - PCT. C/ 100</t>
+          <t>PAPEL HIGIENICO, MATERIAL CELULOSE VIRGEM, COMPRIMENTO 300 M, FARDO C. 8 UND.</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>40</v>
+        <v>573</v>
       </c>
       <c r="E135" t="n">
-        <v>40</v>
+        <v>573</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4627,7 +4627,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>30.22.501</t>
+          <t>30.22.497</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4637,28 +4637,28 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ESCOVA DE LIMPEZA GERAL, USO PARA LAVAR LOUÇA, PUNHO LONGO</t>
+          <t>SACO PLÁSTICO LIXO, CAP. 200L - PCT. C/ 100</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E136" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>30.22.534</t>
+          <t>30.22.501</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4668,14 +4668,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>BALDE, MATERIAL PLÁSTICO, CAPACIDADE 20 L, CARACTERÍSTICAS ADICIONAIS COM ALÇAMETÁLICA, APLICAÇÃO USO GERAL.</t>
+          <t>ESCOVA DE LIMPEZA GERAL, USO PARA LAVAR LOUÇA, PUNHO LONGO</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E137" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4689,7 +4689,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>30.22.581</t>
+          <t>30.22.534</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4699,14 +4699,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>LIXEIRA PLASTICA, COM PEDAL. MARCA: BELOSCH</t>
+          <t>BALDE, MATERIAL PLÁSTICO, CAPACIDADE 20 L, CARACTERÍSTICAS ADICIONAIS COM ALÇAMETÁLICA, APLICAÇÃO USO GERAL.</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E138" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4720,7 +4720,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>30.22.619</t>
+          <t>30.22.581</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4730,14 +4730,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DESODORIZADOR DE AMBIENTE, AEROSOL, ESSÊNCIA: LAVANDA.</t>
+          <t>LIXEIRA PLASTICA, COM PEDAL. MARCA: BELOSCH</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E139" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4751,7 +4751,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>30.22.636</t>
+          <t>30.22.619</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4761,14 +4761,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CARRINHO LIMPEZA MULTIFUNÇÃO (BALDES E ESPREMEDOR), COM 4 RODÍZIOS.</t>
+          <t>DESODORIZADOR DE AMBIENTE, AEROSOL, ESSÊNCIA: LAVANDA.</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>30.22.644</t>
+          <t>30.22.636</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4792,14 +4792,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>VASSOURA JARDINAGEM, TIPO: FIXA.</t>
+          <t>CARRINHO LIMPEZA MULTIFUNÇÃO (BALDES E ESPREMEDOR), COM 4 RODÍZIOS.</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4813,7 +4813,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>30.22.65</t>
+          <t>30.22.644</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4823,14 +4823,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
+          <t>VASSOURA JARDINAGEM, TIPO: FIXA.</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E142" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>30.22.650</t>
+          <t>30.22.65</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4854,14 +4854,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>VASSOURA, CERDAS: CRINA, CABO: MADEIRA, CEPA: MADEIRA, COMPRIMENTO CEPA:40 CM, COMPRIMENTO CERDAS: MÍNIMO 5 CM, CARACTERÍSTICAS ADICIONAIS: COM CABO ROSQUEADO. MARCA: PERNAMBUCANA.</t>
+          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E143" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4875,7 +4875,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>30.22.653</t>
+          <t>30.22.650</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4885,14 +4885,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DISPENSER PARA PAPEL TOALHA, INTERFOLHADO. CARACT.: PAPELEIRA PARA PAPEL TOALHA. INTERFOLHA: 2 OU 3 DOBRAS. CAPACIDADE: PACOTE 1.000 FLS. MARCA: BELLPLUS.</t>
+          <t>VASSOURA, CERDAS: CRINA, CABO: MADEIRA, CEPA: MADEIRA, COMPRIMENTO CEPA:40 CM, COMPRIMENTO CERDAS: MÍNIMO 5 CM, CARACTERÍSTICAS ADICIONAIS: COM CABO ROSQUEADO. MARCA: PERNAMBUCANA.</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E144" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4906,7 +4906,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>30.22.665</t>
+          <t>30.22.653</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4916,14 +4916,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ÁLCOOL ETÍLICO, LIMPEZA DE AMBIENTES, CONCENTRAÇÃO 92,8º INPM.</t>
+          <t>DISPENSER PARA PAPEL TOALHA, INTERFOLHADO. CARACT.: PAPELEIRA PARA PAPEL TOALHA. INTERFOLHA: 2 OU 3 DOBRAS. CAPACIDADE: PACOTE 1.000 FLS. MARCA: BELLPLUS.</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E145" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>30.22.667</t>
+          <t>30.22.665</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4947,14 +4947,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>LUSTRADOR MÓVEIS.</t>
+          <t>ÁLCOOL ETÍLICO, LIMPEZA DE AMBIENTES, CONCENTRAÇÃO 92,8º INPM.</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E146" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4968,7 +4968,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>30.22.668</t>
+          <t>30.22.667</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4978,14 +4978,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>VASSOURA, MATERIAL CERDAS PELO SINTÉTICO, CABO MADEIRA, COMPRIMENTO CEPA 26cm, PARA LIMPEZA GERAL.</t>
+          <t>LUSTRADOR MÓVEIS.</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E147" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>30.22.681</t>
+          <t>30.22.668</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5009,14 +5009,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>PANO LIMPEZA, MATERIAL 100 ALGODÃO, COMPRIMENTO 60 CM, LARGURA 45 CM, CARACTERÍSTICAS ADICIONAIS ALVEJADO, APLICAÇÃO LIMPEZA GERAL.</t>
+          <t>VASSOURA, MATERIAL CERDAS PELO SINTÉTICO, CABO MADEIRA, COMPRIMENTO CEPA 26cm, PARA LIMPEZA GERAL.</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E148" t="n">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>30.22.690</t>
+          <t>30.22.681</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5040,14 +5040,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>LIXEIRA COM RODAS - 240 LITROS. ALTURA: 100 CM, LARGURA: 54 CM, COMPRIMENTO: 71 CM. FABRICADO EM POLIETILENO DE ALTO IMPACTO COM PROTEÇÃO UV. PRETO</t>
+          <t>PANO LIMPEZA, MATERIAL 100 ALGODÃO, COMPRIMENTO 60 CM, LARGURA 45 CM, CARACTERÍSTICAS ADICIONAIS ALVEJADO, APLICAÇÃO LIMPEZA GERAL.</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>30.22.696</t>
+          <t>30.22.690</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5071,14 +5071,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>LUVA BORRACHA, MATERIAL LÁTEX NATURAL, TAMANHO GRANDE, COR AMARELA, CARACTERÍSTICAS ADICIONAIS ANTIDERRAPANTE COM FORRO, TIPO CANO LONGO.</t>
+          <t>LIXEIRA COM RODAS - 240 LITROS. ALTURA: 100 CM, LARGURA: 54 CM, COMPRIMENTO: 71 CM. FABRICADO EM POLIETILENO DE ALTO IMPACTO COM PROTEÇÃO UV. PRETO</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -5092,7 +5092,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>30.22.704</t>
+          <t>30.22.696</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5102,14 +5102,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>COLETOR LIXO, MATERIAL FIBRA DE VIDRO, CAPACIDADE 30 L, COR LARANJA, IMPRESSO PILHAS E BATERIAS.</t>
+          <t>LUVA BORRACHA, MATERIAL LÁTEX NATURAL, TAMANHO GRANDE, COR AMARELA, CARACTERÍSTICAS ADICIONAIS ANTIDERRAPANTE COM FORRO, TIPO CANO LONGO.</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -5123,7 +5123,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>30.22.718</t>
+          <t>30.22.704</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5133,14 +5133,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO LIXO, CAPACIDADE 100L, COR PRETA, LARGURA 80CM, ALTURA 100CM.</t>
+          <t>COLETOR LIXO, MATERIAL FIBRA DE VIDRO, CAPACIDADE 30 L, COR LARANJA, IMPRESSO PILHAS E BATERIAS.</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>30.22.725</t>
+          <t>30.22.718</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5164,14 +5164,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>RODO, MATERIAL CABO ALUMÍNIO, COMPRIMENTO SUPORTE 30 CM, QUANTIDADE BORRACHA 2 UN, CARACTERÍSTICAS ADICIONAIS CABO APROXIMADAMENTE 1.50 M</t>
+          <t>SACO PLÁSTICO LIXO, CAPACIDADE 100L, COR PRETA, LARGURA 80CM, ALTURA 100CM.</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="E153" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -5185,7 +5185,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>30.22.726</t>
+          <t>30.22.725</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5195,28 +5195,28 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>luva borracha, material latex natural, tamanho médio, caracteristicas adicionais, com amarela</t>
+          <t>RODO, MATERIAL CABO ALUMÍNIO, COMPRIMENTO SUPORTE 30 CM, QUANTIDADE BORRACHA 2 UN, CARACTERÍSTICAS ADICIONAIS CABO APROXIMADAMENTE 1.50 M</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E154" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>30.22.727</t>
+          <t>30.22.726</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5226,14 +5226,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>saco plástico lixo, capacidade 100 l, cor preta, largura 90 cm, altura 90 cm, características adicionais</t>
+          <t>luva borracha, material latex natural, tamanho médio, caracteristicas adicionais, com amarela</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E155" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -5247,7 +5247,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>30.22.728</t>
+          <t>30.22.727</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5257,14 +5257,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>pá coletora de lixo, lâmina de borracha encaixada no corpo da pá, com movimento basculante da pá de recolhimento. trava de fixação do cabo na pá para transporte despejo dos detritos, caixa coletor</t>
+          <t>saco plástico lixo, capacidade 100 l, cor preta, largura 90 cm, altura 90 cm, características adicionais</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5278,7 +5278,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>30.22.751</t>
+          <t>30.22.728</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5288,14 +5288,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Dispenser para papel higiênico.</t>
+          <t>pá coletora de lixo, lâmina de borracha encaixada no corpo da pá, com movimento basculante da pá de recolhimento. trava de fixação do cabo na pá para transporte despejo dos detritos, caixa coletor</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -5309,7 +5309,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>30.22.753</t>
+          <t>30.22.751</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5319,14 +5319,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ÁLCOOL ETÍLICO, TIPO HIDRATADO, TEOR ALCOÓLICA 70 (70° GL), COMPOSIÇÃO BÁSICA COM CARBOCOL E GLICERINA, CARACTERÍSTICAS ADICIONAIS BAG IN BOX, COM BICO DOSADOR, REFIL</t>
+          <t>Dispenser para papel higiênico.</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E158" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5340,7 +5340,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>30.22.754</t>
+          <t>30.22.753</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5350,14 +5350,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DESINFETANTE, COMPOSIÇÃO A BASE DE QUATERNÁRIO DE AMÔNIA, PRINCIPIO ATIVO CLORETO ALQUIL DIMETIL BENZIL AMÔNIA + TENCIOATIVO S, TEOR ATIVO EM TORNO DE 1,5, FORMA FÍSICA SOLUÇÃO AQUOSA. GALÃO 5 LITROS.</t>
+          <t>ÁLCOOL ETÍLICO, TIPO HIDRATADO, TEOR ALCOÓLICA 70 (70° GL), COMPOSIÇÃO BÁSICA COM CARBOCOL E GLICERINA, CARACTERÍSTICAS ADICIONAIS BAG IN BOX, COM BICO DOSADOR, REFIL</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E159" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5371,7 +5371,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>30.22.755</t>
+          <t>30.22.754</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5381,14 +5381,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>PANO DE LIMPEZA,MATERIAL 100 ALGODÃO, COMPRIMENTO 70 CM, LARGURA 50 CM, CARACTERÍSTICAS ADICIONAL COR BRANCA</t>
+          <t>DESINFETANTE, COMPOSIÇÃO A BASE DE QUATERNÁRIO DE AMÔNIA, PRINCIPIO ATIVO CLORETO ALQUIL DIMETIL BENZIL AMÔNIA + TENCIOATIVO S, TEOR ATIVO EM TORNO DE 1,5, FORMA FÍSICA SOLUÇÃO AQUOSA. GALÃO 5 LITROS.</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E160" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5402,7 +5402,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>30.22.756</t>
+          <t>30.22.755</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5412,14 +5412,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ÁLCOOL ETÍLICO HIDRATADO, APRESENTAÇÃO GEL, CONCENTRAÇÃO 70º</t>
+          <t>PANO DE LIMPEZA,MATERIAL 100 ALGODÃO, COMPRIMENTO 70 CM, LARGURA 50 CM, CARACTERÍSTICAS ADICIONAL COR BRANCA</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="E161" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5433,7 +5433,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>30.22.757</t>
+          <t>30.22.756</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5443,14 +5443,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SABONETEIRA, MATERIAL SUPORTE PLÁSTICO ABS, MATERIAL RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO SUPERFICIAL SUPORTE PLÁSTICO,ALTURA 23 CM, LARGURA 11 CM,, CAPACIDADE 1000ML, FIXAÇÃO EM PAREDE COM BUCHA, PARAFUSO TIPO USO DOMESTICO, COM USO DO REFIL.</t>
+          <t>ÁLCOOL ETÍLICO HIDRATADO, APRESENTAÇÃO GEL, CONCENTRAÇÃO 70º</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E162" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -5464,7 +5464,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>30.22.758</t>
+          <t>30.22.757</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5474,14 +5474,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SABONETE LIQUIDO ASPECTO FÍSICO LIQUIDO VISCOSO, ACIDEZ PH 6 A 8,APLICAÇÃO ASSEPSIA DAS MÃOS , COMPOSIÇÃO TENSOATIVOS ANIÔNICO E NÃO ANIÔNICO, SOLVENTE</t>
+          <t>SABONETEIRA, MATERIAL SUPORTE PLÁSTICO ABS, MATERIAL RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO SUPERFICIAL SUPORTE PLÁSTICO,ALTURA 23 CM, LARGURA 11 CM,, CAPACIDADE 1000ML, FIXAÇÃO EM PAREDE COM BUCHA, PARAFUSO TIPO USO DOMESTICO, COM USO DO REFIL.</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E163" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -5495,7 +5495,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>30.22.759</t>
+          <t>30.22.758</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5505,14 +5505,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12, 50 CM, CAPACIDADE 800 ML, TIPO FIXAÇÃO EM PAREDE ATRAVÉS DE BUCHA E PARAFUSO,TIPO USO REFIL 800 ML, TIPO BAG IN BOX,SISTEMA DE TRAVAS LATERAL ACIONADA POR PRESSÃO.</t>
+          <t>SABONETE LIQUIDO ASPECTO FÍSICO LIQUIDO VISCOSO, ACIDEZ PH 6 A 8,APLICAÇÃO ASSEPSIA DAS MÃOS , COMPOSIÇÃO TENSOATIVOS ANIÔNICO E NÃO ANIÔNICO, SOLVENTE</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E164" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>30.22.80</t>
+          <t>30.22.759</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5536,14 +5536,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>BALDE PLÁSTICO COM ALÇA 20 L.</t>
+          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12, 50 CM, CAPACIDADE 800 ML, TIPO FIXAÇÃO EM PAREDE ATRAVÉS DE BUCHA E PARAFUSO,TIPO USO REFIL 800 ML, TIPO BAG IN BOX,SISTEMA DE TRAVAS LATERAL ACIONADA POR PRESSÃO.</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E165" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -5557,7 +5557,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>30.22.802</t>
+          <t>30.22.80</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5567,14 +5567,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>FILME PLÁSTICO, TIPO ESTIRÁVEL, LARGURA 10 CM, APLICAÇÃO EMBALAR VIDRARIAS, MATERIAL PVC, COMPRIMENTO 38 M</t>
+          <t>BALDE PLÁSTICO COM ALÇA 20 L.</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E166" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -5588,7 +5588,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>30.22.805</t>
+          <t>30.22.802</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5598,14 +5598,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>VESTUÁRIO DE PROTEÇÃO, AVENTAL DESCARTÁVEL, GRAMATURA 30/M², MANGA LONGA COM PUNHO.</t>
+          <t>FILME PLÁSTICO, TIPO ESTIRÁVEL, LARGURA 10 CM, APLICAÇÃO EMBALAR VIDRARIAS, MATERIAL PVC, COMPRIMENTO 38 M</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -5619,7 +5619,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>30.22.806</t>
+          <t>30.22.805</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5629,14 +5629,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TAPETE, MATERIAL SUPERFÍCIE VINIL, BASE PVC, TIPO BORRACHA ANTIDERRAPANTE, 38 CM X 158 CM, COR PRETA, SANITIZANTE,</t>
+          <t>VESTUÁRIO DE PROTEÇÃO, AVENTAL DESCARTÁVEL, GRAMATURA 30/M², MANGA LONGA COM PUNHO.</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -5650,7 +5650,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>30.22.807</t>
+          <t>30.22.806</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5660,14 +5660,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Fita adesiva, cor vermelha, material polipropileno, 20mm x 30m</t>
+          <t>TAPETE, MATERIAL SUPERFÍCIE VINIL, BASE PVC, TIPO BORRACHA ANTIDERRAPANTE, 38 CM X 158 CM, COR PRETA, SANITIZANTE,</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E169" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -5681,7 +5681,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>30.22.808</t>
+          <t>30.22.807</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5691,14 +5691,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Termômetro clínico, digital, infravermelho, uso em testa, escala até 50º C, memória até 10 medições.</t>
+          <t>Fita adesiva, cor vermelha, material polipropileno, 20mm x 30m</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -5712,24 +5712,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>30.23.755</t>
+          <t>30.22.808</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>FAIXA PARA CINTURA AJUSTÁVEL EM CETIM, COM VELCRO, ENTRE 8 E 10CM DE LARGURA E 1,10 E 1,50M DE COMPRIMENTO</t>
+          <t>Termômetro clínico, digital, infravermelho, uso em testa, escala até 50º C, memória até 10 medições.</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E171" t="n">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -5743,7 +5743,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>30.23.817</t>
+          <t>30.23.755</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5753,28 +5753,28 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>TOGA, MATERIAL CETIM, COR PRETA, APLICAÇÃO SOLENIDADES</t>
+          <t>FAIXA PARA CINTURA AJUSTÁVEL EM CETIM, COM VELCRO, ENTRE 8 E 10CM DE LARGURA E 1,10 E 1,50M DE COMPRIMENTO</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E172" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>30.23.818</t>
+          <t>30.23.817</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5784,45 +5784,45 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CHAPÉU MASCULINO, CAPELO AJUSTÁVEL, CONFECCIONADO EM TECIDO OXFORD PRETO, AJUSTÁVEL EM VELCRO.</t>
+          <t>TOGA, MATERIAL CETIM, COR PRETA, APLICAÇÃO SOLENIDADES</t>
         </is>
       </c>
       <c r="D173" t="n">
         <v>78</v>
       </c>
       <c r="E173" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>pedido no suap</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>30.24.1065</t>
+          <t>30.23.818</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ROLO PINTURA PREDIAL, LÃ DE CARNEIRO, TUBO PLÁSTICO, APLICAÇÃO SUPERFÍCIE LISA/LÁTEX E ACRÍLICA, COMPRIMENTO 9 CM, CABO PLÁSTICO RESISTENTE</t>
+          <t>CHAPÉU MASCULINO, CAPELO AJUSTÁVEL, CONFECCIONADO EM TECIDO OXFORD PRETO, AJUSTÁVEL EM VELCRO.</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>30.24.1338</t>
+          <t>30.24.1065</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5846,28 +5846,28 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>BUCHA PARA PARAFUSO, EM NYLON Nº8.</t>
+          <t>ROLO PINTURA PREDIAL, LÃ DE CARNEIRO, TUBO PLÁSTICO, APLICAÇÃO SUPERFÍCIE LISA/LÁTEX E ACRÍLICA, COMPRIMENTO 9 CM, CABO PLÁSTICO RESISTENTE</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>30.24.1669</t>
+          <t>30.24.1338</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5877,14 +5877,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ADESIVO CONEXÃO HIDRÁULICA, COMPOSIÇÃO BISNAGAS DUPLAS PARA MISTURA INSTANTÂNEA, APLICAÇÃO TUBOS E CONEXÕES DE PVC, COLAGEM ULTRA RÁPIDA, FRASCO COM 175 G</t>
+          <t>BUCHA PARA PARAFUSO, EM NYLON Nº8.</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E176" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -5898,7 +5898,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>30.24.1816</t>
+          <t>30.24.1669</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5908,14 +5908,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
+          <t>ADESIVO CONEXÃO HIDRÁULICA, COMPOSIÇÃO BISNAGAS DUPLAS PARA MISTURA INSTANTÂNEA, APLICAÇÃO TUBOS E CONEXÕES DE PVC, COLAGEM ULTRA RÁPIDA, FRASCO COM 175 G</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E177" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -5929,7 +5929,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>30.24.2269</t>
+          <t>30.24.1816</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5939,14 +5939,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SIFÃO, CONEXÃO HIDRÁULICA PARA USO EM PIA DE LAVATÓRIO</t>
+          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E178" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -5960,7 +5960,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>30.24.2602</t>
+          <t>30.24.2269</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5970,14 +5970,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>BÓIA CAIXA D'ÁGUA , BOIA PARA CAIXA D'ÁGUA EM PVC, BITOLA DE 3/4 mARCA: alumasa</t>
+          <t>SIFÃO, CONEXÃO HIDRÁULICA PARA USO EM PIA DE LAVATÓRIO</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E179" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -5991,7 +5991,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>30.24.2661</t>
+          <t>30.24.2602</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6001,14 +6001,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>BROXA PINTURA ( pincel) de 3</t>
+          <t>BÓIA CAIXA D'ÁGUA , BOIA PARA CAIXA D'ÁGUA EM PVC, BITOLA DE 3/4 mARCA: alumasa</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>30.24.2697</t>
+          <t>30.24.2661</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRAULICA, MATERIAL PVC- CLORETO DE POLIVINA, TIPO LUVA, TIPO FIXAÇÃO, BITOLA 25</t>
+          <t>BROXA PINTURA ( pincel) de 3</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -6053,7 +6053,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>30.24.2711</t>
+          <t>30.24.2697</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6063,14 +6063,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRAULICA, MATERIAL PVC, TIPO TAMPÃO, TIPO FIXAÇÃO ROSCÁVEL, BITOLA 1/2 POL</t>
+          <t>CONEXÃO HIDRAULICA, MATERIAL PVC- CLORETO DE POLIVINA, TIPO LUVA, TIPO FIXAÇÃO, BITOLA 25</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E182" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -6084,7 +6084,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>30.24.2805</t>
+          <t>30.24.2711</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6094,14 +6094,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC, TIPO TÊ 90º, FIXAÇÃO SOLDÁVEL. APLICAÇÃO PREDIAL ÁGUA FRIA, BITOLA 40 MM.</t>
+          <t>CONEXÃO HIDRAULICA, MATERIAL PVC, TIPO TAMPÃO, TIPO FIXAÇÃO ROSCÁVEL, BITOLA 1/2 POL</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E183" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -6115,7 +6115,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>30.24.2814</t>
+          <t>30.24.2805</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6125,14 +6125,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>CONEXÃO HIDRÁULICA, PVC, TIPO TÊ 90°, ÁGUA FRIA, 25MM</t>
+          <t>CONEXÃO HIDRÁULICA, MATERIAL PVC, TIPO TÊ 90º, FIXAÇÃO SOLDÁVEL. APLICAÇÃO PREDIAL ÁGUA FRIA, BITOLA 40 MM.</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E184" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -6146,7 +6146,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>30.24.2819</t>
+          <t>30.24.2814</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6156,14 +6156,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>PARAFUSO DE FENDA 8MM</t>
+          <t>CONEXÃO HIDRÁULICA, PVC, TIPO TÊ 90°, ÁGUA FRIA, 25MM</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E185" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -6177,7 +6177,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>30.24.2824</t>
+          <t>30.24.2819</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6187,14 +6187,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>PREGO COM CABEÇA DE 11/4 X 14.</t>
+          <t>PARAFUSO DE FENDA 8MM</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -6208,7 +6208,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>30.24.2858</t>
+          <t>30.24.2824</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6218,14 +6218,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
+          <t>PREGO COM CABEÇA DE 11/4 X 14.</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -6239,7 +6239,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>30.24.946</t>
+          <t>30.24.2858</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6249,14 +6249,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
+          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E188" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>30.24.971</t>
+          <t>30.24.946</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6280,14 +6280,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>TAMPÃO - 1/2 LISO PVC</t>
+          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E189" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -6301,24 +6301,24 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>30.26.1156</t>
+          <t>30.24.971</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Curva 90º para eletroduto PVC rígido, anti-chama, ¾”, fabricante nacional</t>
+          <t>TAMPÃO - 1/2 LISO PVC</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E190" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -6332,7 +6332,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>30.26.1215</t>
+          <t>30.26.1156</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6342,21 +6342,21 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ABRAÇADEIRA PLÁSTICA PARA ELETRODUTO DE 3/4.</t>
+          <t>Curva 90º para eletroduto PVC rígido, anti-chama, ¾”, fabricante nacional</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E191" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -6394,7 +6394,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>30.26.1226</t>
+          <t>30.26.1215</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6404,14 +6404,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HASTE DE ATERRAMENTO EM COBRE, 5/8" X 2,40M.</t>
+          <t>ABRAÇADEIRA PLÁSTICA PARA ELETRODUTO DE 3/4.</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>30.26.1529</t>
+          <t>30.26.1226</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6435,14 +6435,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>MULTÍMETRO DIGITAL PORTÁTIL.</t>
+          <t>HASTE DE ATERRAMENTO EM COBRE, 5/8" X 2,40M.</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -6456,7 +6456,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>30.26.1975</t>
+          <t>30.26.1529</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6466,28 +6466,28 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Caixa de passagem de sobrepor em chapa de aço com entrada para canaleta e eletrodutos 3/4</t>
+          <t>MULTÍMETRO DIGITAL PORTÁTIL.</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>30.26.1975</t>
+          <t>30.26.1646</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6497,14 +6497,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Caixa de passagem de sobrepor em chapa de aço com entrada para canaleta e eletrodutos 3/4</t>
+          <t>PARAFUSO, MATERIAL AÇO, 6MM, CABEÇA TIPO PANELA, COM BUCHA 6MM.</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="E196" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -6518,7 +6518,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>30.26.1997</t>
+          <t>30.26.1975</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6528,28 +6528,28 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Lâmpada vapor metálico de 400W.</t>
+          <t>Caixa de passagem de sobrepor em chapa de aço com entrada para canaleta e eletrodutos 3/4</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>30.26.2160</t>
+          <t>30.26.1975</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6559,14 +6559,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>LUVA DE SEGURANÇA, CONFECCIONADA EM RASPA, REFORÇO INTERNO EM RASPA NA PALMA, TIRA DE REFORÇO EXTERNO EM RASPA ENTRE O POLEGAR E O INDICADOR, PROTEÇÃO DAS MÃOS DO USUSARIO CONTRA AGENTES ABRASIVOS E ESCORIANTES, CANO LONGO. MARCA: ZANEL</t>
+          <t>Caixa de passagem de sobrepor em chapa de aço com entrada para canaleta e eletrodutos 3/4</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -6580,7 +6580,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>30.26.2340</t>
+          <t>30.26.1997</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>CALHA DE ALUMÍNIO, ESTRUTURA SOBREPOR, CAPACIDADE 2 LÂMPADAS FLUORESCENTES E TUBULARES DE ATÉ 40W (PINTURA ELETROSTÁTICA EM PÓ POLIÉSTER)</t>
+          <t>Lâmpada vapor metálico de 400W.</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>30.26.2342</t>
+          <t>30.26.2160</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6621,14 +6621,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>LUMINÁRIA DE EMERGÊNCIA AUTÔNOMA, BIVOLT, FLÚOR, 2X10W.</t>
+          <t>LUVA DE SEGURANÇA, CONFECCIONADA EM RASPA, REFORÇO INTERNO EM RASPA NA PALMA, TIRA DE REFORÇO EXTERNO EM RASPA ENTRE O POLEGAR E O INDICADOR, PROTEÇÃO DAS MÃOS DO USUSARIO CONTRA AGENTES ABRASIVOS E ESCORIANTES, CANO LONGO. MARCA: ZANEL</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>30.26.2364</t>
+          <t>30.26.2340</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6652,14 +6652,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Bota de segurança em couro, com absorção de impacto, palmilha antimicrobiana, fechamento em cadarço, solado em PU, cor preta, nº 39 e 40.</t>
+          <t>CALHA DE ALUMÍNIO, ESTRUTURA SOBREPOR, CAPACIDADE 2 LÂMPADAS FLUORESCENTES E TUBULARES DE ATÉ 40W (PINTURA ELETROSTÁTICA EM PÓ POLIÉSTER)</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -6673,7 +6673,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>30.26.2468</t>
+          <t>30.26.2342</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -6683,14 +6683,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SOLDA, TIPO SÓLIDO, DIÂMETRO 1,00 MM APLICAÇÃO SERVIÇOS ELÉTRICO E ELETRÔNICO. ROLO 500 G</t>
+          <t>LUMINÁRIA DE EMERGÊNCIA AUTÔNOMA, BIVOLT, FLÚOR, 2X10W.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E202" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -6704,7 +6704,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>30.26.2908</t>
+          <t>30.26.2364</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6714,14 +6714,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ADAPTADOR, CONEXÃO HDMI MACHO X VGA FÊMEA , CARACTERISTICAS ADCIONAIS RESOLUÇÃO MINIMA: 1080P APLICAÇÃO USO EM VIDEO</t>
+          <t>Bota de segurança em couro, com absorção de impacto, palmilha antimicrobiana, fechamento em cadarço, solado em PU, cor preta, nº 39 e 40.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -6735,7 +6735,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>30.26.2911</t>
+          <t>30.26.2468</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CABO EXTENSOR, TIPO FLEXÍVEL, TIPO SAIDA HDMI MACHO X HDMI MACHO 19 PINOS, COMPRIMENTO 15 METROS, APLICAÇÃO MULTIMÍDIA, CARACTERÍSTICAS ADICIONAIS,480I,480P,720P,1080I,1080P</t>
+          <t>SOLDA, TIPO SÓLIDO, DIÂMETRO 1,00 MM APLICAÇÃO SERVIÇOS ELÉTRICO E ELETRÔNICO. ROLO 500 G</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -6766,7 +6766,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>30.26.2962</t>
+          <t>30.26.2908</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6776,14 +6776,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
+          <t>ADAPTADOR, CONEXÃO HDMI MACHO X VGA FÊMEA , CARACTERISTICAS ADCIONAIS RESOLUÇÃO MINIMA: 1080P APLICAÇÃO USO EM VIDEO</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -6797,7 +6797,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>30.26.3129</t>
+          <t>30.26.2911</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6807,14 +6807,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>LÂMPADA LED, TENSÃO NOMINAL BIVOLT, POTÊNCIA NOMINAL 15 W, COR BRANCA.</t>
+          <t>CABO EXTENSOR, TIPO FLEXÍVEL, TIPO SAIDA HDMI MACHO X HDMI MACHO 19 PINOS, COMPRIMENTO 15 METROS, APLICAÇÃO MULTIMÍDIA, CARACTERÍSTICAS ADICIONAIS,480I,480P,720P,1080I,1080P</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E206" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -6828,7 +6828,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>30.26.3130</t>
+          <t>30.26.2962</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6838,14 +6838,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>LÂMPADA LED, TENSÃO NOMINAL BIVOLT, POTÊNCIA NOMINAL 18 W, TIPO BASE G13, COR BRANCA FRIA.</t>
+          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -6859,7 +6859,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>30.26.3131</t>
+          <t>30.26.3129</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6869,14 +6869,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Refletor, Luminária Led para Poste, potência - 100W / Led: Tipo Cob.</t>
+          <t>LÂMPADA LED, TENSÃO NOMINAL BIVOLT, POTÊNCIA NOMINAL 15 W, COR BRANCA.</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E208" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -6890,7 +6890,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>30.26.64</t>
+          <t>30.26.3130</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6900,14 +6900,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>REATOR 400W (LAMPADA VAPOR MERCÚRIO)</t>
+          <t>LÂMPADA LED, TENSÃO NOMINAL BIVOLT, POTÊNCIA NOMINAL 18 W, TIPO BASE G13, COR BRANCA FRIA.</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E209" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -6921,24 +6921,24 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>30.29.46</t>
+          <t>30.26.3131</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>CABO PARA ÁUDIO E VÍDEO, MATERIAL CONDUTOR COBRE, MATERIAL DE ISOLAMENTO CONDUTOR PVC. APLICAÇÃO MICROFONE, ACESSÓRIOS CONECTOR XLR, MATERIAL COBERTURA PVC EMBORRACHADO, 2 M DE COMPRIMENTO. MARCA: SANTO ANGELO.</t>
+          <t>Refletor, Luminária Led para Poste, potência - 100W / Led: Tipo Cob.</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E210" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -6952,24 +6952,24 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>30.29.47</t>
+          <t>30.26.64</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>CABO PARA ÁUDIO E VÍDEO, MATERIAL CONDUTOR COBRE, MATERIAL ISOLAMENTO CONDUTOR PVC, APLICAÇÃO MICROFONE, ACESSÓRIOS CONECTOR XLR, MATERIAL COBERTURA PVC EMBORRACHADO, COMPRIMENTO 2 M. MARCA: STARCABLE.</t>
+          <t>REATOR 400W (LAMPADA VAPOR MERCÚRIO)</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E211" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -6983,24 +6983,24 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>30.42.1052</t>
+          <t>30.29.46</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>42 - FERRAMENTAS</t>
+          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>CLAVICULÁRIO, MATERIAL ACRÍLICO, COMPRIMENTO 700 MM, LARGURA 450 MM.</t>
+          <t>CABO PARA ÁUDIO E VÍDEO, MATERIAL CONDUTOR COBRE, MATERIAL DE ISOLAMENTO CONDUTOR PVC. APLICAÇÃO MICROFONE, ACESSÓRIOS CONECTOR XLR, MATERIAL COBERTURA PVC EMBORRACHADO, 2 M DE COMPRIMENTO. MARCA: SANTO ANGELO.</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -7014,24 +7014,24 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>30.42.1143</t>
+          <t>30.29.47</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>42 - FERRAMENTAS</t>
+          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Broca wídia, material corpo: aço, diâmetro: 10 mm, comprimento: 260 mm, características adicionais: encaixe tipo sds plus, aplicação: perfuração de concreto.</t>
+          <t>CABO PARA ÁUDIO E VÍDEO, MATERIAL CONDUTOR COBRE, MATERIAL ISOLAMENTO CONDUTOR PVC, APLICAÇÃO MICROFONE, ACESSÓRIOS CONECTOR XLR, MATERIAL COBERTURA PVC EMBORRACHADO, COMPRIMENTO 2 M. MARCA: STARCABLE.</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E213" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -7045,7 +7045,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>30.42.1144</t>
+          <t>30.42.1052</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7055,14 +7055,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Broca wídia, material corpo: aço, diâmetro: 12 mm, comprimento: 460 mm, características adicionais: encaixe tipo sds plus, aplicação: perfuração de concreto .</t>
+          <t>CLAVICULÁRIO, MATERIAL ACRÍLICO, COMPRIMENTO 700 MM, LARGURA 450 MM.</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E214" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7076,7 +7076,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>30.42.1145</t>
+          <t>30.42.1143</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7086,14 +7086,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Broca wídia, material corpo: aço carbono, diâmetro: 8 mm, características adicionais: haste cilíndrica, aplicação: perfuração de concreto .</t>
+          <t>Broca wídia, material corpo: aço, diâmetro: 10 mm, comprimento: 260 mm, características adicionais: encaixe tipo sds plus, aplicação: perfuração de concreto.</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E215" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -7107,7 +7107,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>30.42.1148</t>
+          <t>30.42.1144</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7117,14 +7117,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>FITA ISOLANTE ELÉTRICA, MATERIAL BÁSICO FILME DE PVC, RESISTÊNCIA À TENSÃO ATÉ 750 V, COR PRETA 18mmx20mts.</t>
+          <t>Broca wídia, material corpo: aço, diâmetro: 12 mm, comprimento: 460 mm, características adicionais: encaixe tipo sds plus, aplicação: perfuração de concreto .</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E216" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -7138,7 +7138,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>30.42.1149</t>
+          <t>30.42.1145</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7148,14 +7148,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>TORNEIRA, MATERIAL CORPO METAL, TIPO JARDIM, DIÂMETRO 1/2 POL., ACABAMENTO SUPERFICIAL CROMADO, CARACTERÍSTICAS ADICIONAIS ADAPTADOR PARA MANGUEIRA E FECHAMENTO RÁPIDO</t>
+          <t>Broca wídia, material corpo: aço carbono, diâmetro: 8 mm, características adicionais: haste cilíndrica, aplicação: perfuração de concreto .</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E217" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -7169,7 +7169,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>30.42.1151</t>
+          <t>30.42.1148</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -7179,14 +7179,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>MANGUEIRA HIDRÁULICA, DIÂMETRO INTERNO 3/4 POL, MATERIAL PVC, COR CRISTAL, TIPO TRANÇADA, ESPESSURA PAREDE 2,4 MM.</t>
+          <t>FITA ISOLANTE ELÉTRICA, MATERIAL BÁSICO FILME DE PVC, RESISTÊNCIA À TENSÃO ATÉ 750 V, COR PRETA 18mmx20mts.</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E218" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -7200,7 +7200,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>30.42.1152</t>
+          <t>30.42.1149</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7210,14 +7210,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>FITA VEDA ROSCA, MATERIAL TEFLON, COMPRIMENTO 50 M, LARGURA 18 MM.</t>
+          <t>TORNEIRA, MATERIAL CORPO METAL, TIPO JARDIM, DIÂMETRO 1/2 POL., ACABAMENTO SUPERFICIAL CROMADO, CARACTERÍSTICAS ADICIONAIS ADAPTADOR PARA MANGUEIRA E FECHAMENTO RÁPIDO</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E219" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -7231,7 +7231,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>30.42.1154</t>
+          <t>30.42.1151</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7241,14 +7241,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>TORNEIRA, MATERIAL CORPO LATÃO, TIPO PRESSÃO, DIÂMETRO 1/2 POL, ACABAMENTO CROMADO, APLICAÇÃO LAVATÓRIO - automática</t>
+          <t>MANGUEIRA HIDRÁULICA, DIÂMETRO INTERNO 3/4 POL, MATERIAL PVC, COR CRISTAL, TIPO TRANÇADA, ESPESSURA PAREDE 2,4 MM.</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E220" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -7262,7 +7262,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>30.42.1155</t>
+          <t>30.42.1152</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7272,14 +7272,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>FECHADURA, MATERIAL CAIXA AÇO, ACABAMENTO SUPERFICIAL CROMADO, COMPONENTES 2 CHAVES EM LATÃO NIQUELADO, MAÇANETA TIPO ALAVANCA, TIPO INTERNA/EXTERNA, APLICAÇÃO PORTA.</t>
+          <t>FITA VEDA ROSCA, MATERIAL TEFLON, COMPRIMENTO 50 M, LARGURA 18 MM.</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E221" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -7293,7 +7293,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>30.42.1160</t>
+          <t>30.42.1154</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7303,14 +7303,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>TORNEIRA, Material corpo metal cromado, tipo longa, diâmetro 1/2 pol, acabamento superficial cromado, características adicionais com temporizador, aplicação lavatório - GMC Metais 1093.</t>
+          <t>TORNEIRA, MATERIAL CORPO LATÃO, TIPO PRESSÃO, DIÂMETRO 1/2 POL, ACABAMENTO CROMADO, APLICAÇÃO LAVATÓRIO - automática</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E222" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -7324,24 +7324,24 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>30.44.41</t>
+          <t>30.42.1155</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
+          <t>42 - FERRAMENTAS</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Círculo ou seta indicativo de H2O. Cor interna: Branca com indicações do fone do Corpo de Bombeiros e cor externa: Vermelha.</t>
+          <t>FECHADURA, MATERIAL CAIXA AÇO, ACABAMENTO SUPERFICIAL CROMADO, COMPONENTES 2 CHAVES EM LATÃO NIQUELADO, MAÇANETA TIPO ALAVANCA, TIPO INTERNA/EXTERNA, APLICAÇÃO PORTA.</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E223" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -7355,24 +7355,24 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>30.44.42</t>
+          <t>30.42.1160</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
+          <t>42 - FERRAMENTAS</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Círculo ou seta indicativo de CO2. Cor interna: Amarela com indicação do fone do Corpo de Bombeiros e cor externa: Vermelha.</t>
+          <t>TORNEIRA, Material corpo metal cromado, tipo longa, diâmetro 1/2 pol, acabamento superficial cromado, características adicionais com temporizador, aplicação lavatório - GMC Metais 1093.</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E224" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
@@ -7386,7 +7386,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>30.44.43</t>
+          <t>30.44.41</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7396,14 +7396,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Círculo ou seta indicativo de PQS. Cor interna: Azul com indicação do fone do Corpo de Bombeiros e cor externa: Vermelha</t>
+          <t>Círculo ou seta indicativo de H2O. Cor interna: Branca com indicações do fone do Corpo de Bombeiros e cor externa: Vermelha.</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E225" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F225" t="n">
         <v>0</v>
@@ -7417,29 +7417,91 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
+          <t>30.44.42</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Círculo ou seta indicativo de CO2. Cor interna: Amarela com indicação do fone do Corpo de Bombeiros e cor externa: Vermelha.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>16</v>
+      </c>
+      <c r="E226" t="n">
+        <v>16</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>30.44.43</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Círculo ou seta indicativo de PQS. Cor interna: Azul com indicação do fone do Corpo de Bombeiros e cor externa: Vermelha</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>2</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
           <t>30.44.60</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>PLACA SINALIZADORA DE SAIDA DE EMERGENCIA, COM FUNDO VERDE E SETA DIRECIONAL.</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D228" t="n">
         <v>30</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E228" t="n">
         <v>30</v>
       </c>
-      <c r="F226" t="n">
-        <v>0</v>
-      </c>
-      <c r="G226" t="inlineStr">
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="inlineStr">
         <is>
           <t>adequado</t>
         </is>
